--- a/Lab4_663380239-8.xlsx
+++ b/Lab4_663380239-8.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mansu\Downloads\lab4_QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Lab4\SQA_lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEF129F-C3FB-4107-B112-A475C3C5BC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1D62E2-9924-406F-BDBA-7C7D9A843A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D3B1ECF-CE0B-884D-A6E2-5EDB198A06FE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="109">
   <si>
     <t>Test Case Design and Test Results</t>
   </si>
@@ -227,9 +227,6 @@
     <t>Standard</t>
   </si>
   <si>
-    <t>Gold</t>
-  </si>
-  <si>
     <t>Silver</t>
   </si>
   <si>
@@ -260,32 +257,122 @@
     <t>ศุภวิชญ์</t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Assign</t>
-  </si>
-  <si>
     <t>DF02</t>
   </si>
   <si>
-    <t>15/72568</t>
-  </si>
-  <si>
-    <t>ค่าไม่เท่ากัน</t>
-  </si>
-  <si>
-    <t>ค่าที่ไม่ควรสามารถนำมาคำนวณได้กลับคำนวณออกมามีค่าผลลัพธ์ได้</t>
-  </si>
-  <si>
-    <t>ค่าที่คำนวณได้กับค่าที่คาดหวังมีค่าไม่เท่ากัน</t>
+    <t>TC20</t>
+  </si>
+  <si>
+    <t>TC21</t>
+  </si>
+  <si>
+    <t>TC22</t>
+  </si>
+  <si>
+    <t>TC23</t>
+  </si>
+  <si>
+    <t>TC24</t>
+  </si>
+  <si>
+    <t>TC25</t>
+  </si>
+  <si>
+    <t>TC26</t>
+  </si>
+  <si>
+    <t>TC27</t>
+  </si>
+  <si>
+    <t>TC28</t>
+  </si>
+  <si>
+    <t>TC29</t>
+  </si>
+  <si>
+    <t>TC30</t>
+  </si>
+  <si>
+    <t>TC31</t>
+  </si>
+  <si>
+    <t>TC32</t>
+  </si>
+  <si>
+    <t>Defect ID</t>
+  </si>
+  <si>
+    <t>DF03</t>
+  </si>
+  <si>
+    <t>DF11</t>
+  </si>
+  <si>
+    <t>DF04</t>
+  </si>
+  <si>
+    <t>DF05</t>
+  </si>
+  <si>
+    <t>DF06</t>
+  </si>
+  <si>
+    <t>DF07</t>
+  </si>
+  <si>
+    <t>DF08</t>
+  </si>
+  <si>
+    <t>DF09</t>
+  </si>
+  <si>
+    <t>DF10</t>
+  </si>
+  <si>
+    <t>DF12</t>
+  </si>
+  <si>
+    <t>DF13</t>
+  </si>
+  <si>
+    <t>DF14</t>
+  </si>
+  <si>
+    <t>DF15</t>
+  </si>
+  <si>
+    <t>DF16</t>
+  </si>
+  <si>
+    <t>DF17</t>
+  </si>
+  <si>
+    <t>DF18</t>
+  </si>
+  <si>
+    <t>DF19</t>
+  </si>
+  <si>
+    <t>DF20</t>
+  </si>
+  <si>
+    <t>มีการใส่ค่าข้อมูลที่ไม่ถูกต้อง</t>
+  </si>
+  <si>
+    <t>ค่าระดับสมาชิกของลูกค้าเกิดการคำนวณผิดพลาดขึ้น</t>
+  </si>
+  <si>
+    <t>คำนวณค่าผิด</t>
+  </si>
+  <si>
+    <t>ค่าที่ไม่ควรสามารถนำมาคำนวณได้กลับถูกคำนวณออกมามีค่าผลลัพธ์ได้ นั่นคือค่า -1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -371,6 +458,12 @@
       <name val="TH SarabunPSK"/>
       <family val="2"/>
       <charset val="222"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="9"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -489,7 +582,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -546,14 +639,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -587,16 +686,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -939,7 +1036,7 @@
   <dimension ref="A2:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="27" x14ac:dyDescent="0.75"/>
@@ -982,10 +1079,10 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
@@ -1003,10 +1100,10 @@
         <v>19</v>
       </c>
       <c r="C4" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -1043,11 +1140,11 @@
       </c>
       <c r="C6" s="18">
         <f>SUM(C3:C5)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="19">
         <f t="shared" ref="D6:F6" si="0">SUM(D3:D5)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
@@ -1068,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEE3D1E-0814-D34A-9C7B-86FDE5AD12C8}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="27" x14ac:dyDescent="0.75"/>
@@ -1087,23 +1184,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="24" t="s">
         <v>25</v>
       </c>
       <c r="N1" s="2"/>
@@ -1128,12 +1225,12 @@
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
@@ -1158,12 +1255,12 @@
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1175,7 +1272,7 @@
         <v>50000</v>
       </c>
       <c r="L4" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M4" s="3">
         <v>500</v>
@@ -1186,10 +1283,10 @@
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
       <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1203,7 +1300,7 @@
         <v>99999</v>
       </c>
       <c r="L5" s="3">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="M5" s="3">
         <v>999</v>
@@ -1218,7 +1315,7 @@
         <v>100000</v>
       </c>
       <c r="L6" s="3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="M6" s="3">
         <v>1000</v>
@@ -1226,26 +1323,29 @@
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="38" t="s">
         <v>16</v>
       </c>
+      <c r="H7" s="40" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A8" s="35"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
@@ -1255,13 +1355,14 @@
       <c r="D8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="40"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.75">
@@ -1272,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3">
         <v>500</v>
@@ -1283,10 +1384,11 @@
       <c r="F9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="22" t="str">
+      <c r="G9" s="39" t="str">
         <f>IF(E9=F9, "Pass", "Fail")</f>
         <v>Pass</v>
       </c>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
@@ -1296,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3">
         <v>500</v>
@@ -1307,10 +1409,11 @@
       <c r="F10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="22" t="str">
+      <c r="G10" s="39" t="str">
         <f t="shared" ref="G10:G21" si="0">IF(E10=F10, "Pass", "Fail")</f>
         <v>Pass</v>
       </c>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
@@ -1320,21 +1423,24 @@
         <v>50000</v>
       </c>
       <c r="C11" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3">
         <v>500</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="G11" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
+      <c r="H11" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
@@ -1344,21 +1450,24 @@
         <v>99999</v>
       </c>
       <c r="C12" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D12" s="3">
         <v>500</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="G12" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
+      <c r="H12" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A13" s="3" t="s">
@@ -1368,21 +1477,24 @@
         <v>100000</v>
       </c>
       <c r="C13" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3">
         <v>500</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="G13" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
+      <c r="H13" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A14" s="3" t="s">
@@ -1403,10 +1515,11 @@
       <c r="F14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="22" t="str">
+      <c r="G14" s="39" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A15" s="3" t="s">
@@ -1422,15 +1535,16 @@
         <v>500</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="21" t="str">
+      <c r="G15" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Fail</v>
-      </c>
+        <v>Pass</v>
+      </c>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A16" s="3" t="s">
@@ -1440,7 +1554,7 @@
         <v>50000</v>
       </c>
       <c r="C16" s="3">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3">
         <v>500</v>
@@ -1449,14 +1563,17 @@
         <v>61</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="H16" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>56</v>
       </c>
@@ -1464,7 +1581,7 @@
         <v>50000</v>
       </c>
       <c r="C17" s="3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D17" s="3">
         <v>500</v>
@@ -1473,14 +1590,17 @@
         <v>61</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="H17" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
         <v>57</v>
       </c>
@@ -1488,7 +1608,7 @@
         <v>50000</v>
       </c>
       <c r="C18" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
@@ -1499,12 +1619,13 @@
       <c r="F18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="22" t="str">
+      <c r="G18" s="39" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
         <v>58</v>
       </c>
@@ -1512,7 +1633,7 @@
         <v>50000</v>
       </c>
       <c r="C19" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -1523,12 +1644,13 @@
       <c r="F19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="22" t="str">
+      <c r="G19" s="39" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A20" s="3" t="s">
         <v>59</v>
       </c>
@@ -1536,23 +1658,26 @@
         <v>50000</v>
       </c>
       <c r="C20" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D20" s="3">
         <v>999</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="G20" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="H20" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A21" s="3" t="s">
         <v>60</v>
       </c>
@@ -1560,24 +1685,28 @@
         <v>50000</v>
       </c>
       <c r="C21" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D21" s="3">
         <v>1000</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="G21" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
+      <c r="H21" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B3:E3"/>
@@ -1598,8 +1727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A52C6A-99BA-484C-B915-27B6FC4D32AF}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="27" x14ac:dyDescent="0.75"/>
@@ -1617,23 +1746,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="24" t="s">
         <v>25</v>
       </c>
       <c r="N1" s="2"/>
@@ -1658,12 +1787,12 @@
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
@@ -1688,12 +1817,12 @@
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1716,10 +1845,10 @@
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
       <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1733,7 +1862,7 @@
         <v>50000</v>
       </c>
       <c r="L5" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M5" s="3">
         <v>500</v>
@@ -1748,7 +1877,7 @@
         <v>99999</v>
       </c>
       <c r="L6" s="3">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="M6" s="3">
         <v>999</v>
@@ -1756,22 +1885,25 @@
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="38" t="s">
         <v>16</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>86</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>6</v>
@@ -1780,14 +1912,14 @@
         <v>100000</v>
       </c>
       <c r="L7" s="3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="M7" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A8" s="35"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
@@ -1797,9 +1929,10 @@
       <c r="D8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="40"/>
       <c r="J8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1807,7 +1940,7 @@
         <v>100001</v>
       </c>
       <c r="L8" s="3">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="M8" s="3">
         <v>1001</v>
@@ -1816,37 +1949,40 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A9" s="6" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B9" s="6">
         <v>-1</v>
       </c>
       <c r="C9" s="6">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D9" s="6">
         <v>500</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="23" t="str">
+      <c r="G9" s="22" t="str">
         <f>IF(E9=F9,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
+      <c r="H9" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A10" s="6" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B10" s="6">
         <v>0</v>
       </c>
       <c r="C10" s="6">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D10" s="6">
         <v>500</v>
@@ -1857,20 +1993,21 @@
       <c r="F10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="24" t="str">
+      <c r="G10" s="23" t="str">
         <f t="shared" ref="G10:G27" si="0">IF(E10=F10,"Pass","Fail")</f>
         <v>Pass</v>
       </c>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A11" s="6" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
       </c>
       <c r="C11" s="6">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D11" s="6">
         <v>500</v>
@@ -1881,92 +2018,102 @@
       <c r="F11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="24" t="str">
+      <c r="G11" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A12" s="6" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B12" s="6">
         <v>50000</v>
       </c>
       <c r="C12" s="6">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D12" s="6">
         <v>500</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="23" t="str">
+      <c r="G12" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
+      <c r="H12" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A13" s="6" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B13" s="6">
         <v>99999</v>
       </c>
       <c r="C13" s="6">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D13" s="6">
         <v>500</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="23" t="str">
+      <c r="G13" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
+      <c r="H13" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A14" s="6" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B14" s="6">
         <v>100000</v>
       </c>
       <c r="C14" s="6">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D14" s="6">
         <v>500</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="23" t="str">
+      <c r="G14" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
+      <c r="H14" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A15" s="6" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B15" s="6">
         <v>100001</v>
       </c>
       <c r="C15" s="6">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D15" s="6">
         <v>500</v>
@@ -1975,16 +2122,19 @@
         <v>61</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="23" t="str">
+        <v>62</v>
+      </c>
+      <c r="G15" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
+      <c r="H15" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A16" s="6" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B16" s="6">
         <v>50000</v>
@@ -1996,19 +2146,22 @@
         <v>500</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="23" t="str">
+      <c r="G16" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="H16" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" s="6" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B17" s="6">
         <v>50000</v>
@@ -2020,19 +2173,20 @@
         <v>500</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="24" t="str">
+        <v>61</v>
+      </c>
+      <c r="G17" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A18" s="6" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B18" s="6">
         <v>50000</v>
@@ -2049,20 +2203,21 @@
       <c r="F18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="24" t="str">
+      <c r="G18" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A19" s="6" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B19" s="6">
         <v>50000</v>
       </c>
       <c r="C19" s="6">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D19" s="6">
         <v>500</v>
@@ -2071,22 +2226,25 @@
         <v>61</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="23" t="str">
+        <v>62</v>
+      </c>
+      <c r="G19" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="H19" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A20" s="6" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B20" s="6">
         <v>50000</v>
       </c>
       <c r="C20" s="6">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D20" s="6">
         <v>500</v>
@@ -2095,22 +2253,25 @@
         <v>61</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="23" t="str">
+        <v>62</v>
+      </c>
+      <c r="G20" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="H20" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A21" s="6" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B21" s="6">
         <v>50000</v>
       </c>
       <c r="C21" s="6">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D21" s="6">
         <v>500</v>
@@ -2119,46 +2280,52 @@
         <v>61</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="23" t="str">
+        <v>62</v>
+      </c>
+      <c r="G21" s="22" t="str">
         <f>IF(E21=F21,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="H21" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A22" s="6" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B22" s="6">
         <v>50000</v>
       </c>
       <c r="C22" s="6">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D22" s="6">
         <v>-1</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="23" t="str">
+      <c r="G22" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="H22" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A23" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B23" s="6">
         <v>50000</v>
       </c>
       <c r="C23" s="6">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D23" s="6">
         <v>0</v>
@@ -2169,20 +2336,21 @@
       <c r="F23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="24" t="str">
+      <c r="G23" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A24" s="6" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B24" s="6">
         <v>50000</v>
       </c>
       <c r="C24" s="6">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D24" s="6">
         <v>1</v>
@@ -2193,68 +2361,75 @@
       <c r="F24" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="24" t="str">
+      <c r="G24" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A25" s="6" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B25" s="6">
         <v>50000</v>
       </c>
       <c r="C25" s="6">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D25" s="6">
         <v>999</v>
       </c>
       <c r="E25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="23" t="str">
+      <c r="G25" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="H25" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A26" s="6" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B26" s="6">
         <v>50000</v>
       </c>
       <c r="C26" s="6">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D26" s="6">
         <v>1000</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="23" t="str">
+      <c r="G26" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="H26" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A27" s="6" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B27" s="6">
         <v>50000</v>
       </c>
       <c r="C27" s="6">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D27" s="6">
         <v>1001</v>
@@ -2263,15 +2438,19 @@
         <v>61</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="23" t="str">
+        <v>62</v>
+      </c>
+      <c r="G27" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
+      <c r="H27" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
@@ -2289,10 +2468,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8068CBD9-38BE-794D-AE4F-17FC500CF117}">
-  <dimension ref="A2:K4"/>
+  <dimension ref="A2:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="27" x14ac:dyDescent="0.75"/>
@@ -2300,7 +2479,7 @@
     <col min="1" max="2" width="10.81640625" style="1"/>
     <col min="3" max="3" width="45.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="10.81640625" style="1"/>
-    <col min="11" max="11" width="51.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="86.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
@@ -2340,68 +2519,507 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A3" s="37">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="26">
+        <v>244180</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="38">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A4" s="27">
+        <v>2</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="42">
         <v>244180</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A4" s="39">
-        <v>2</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39" t="s">
-        <v>79</v>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A5" s="25">
+        <v>3</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="26">
+        <v>244180</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A6" s="27">
+        <v>4</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="26">
+        <v>244180</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A7" s="25">
+        <v>5</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="26">
+        <v>244180</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A8" s="27">
+        <v>6</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="42">
+        <v>244180</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A9" s="25">
+        <v>7</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="26">
+        <v>244180</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A10" s="27">
+        <v>8</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="26">
+        <v>244180</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A11" s="25">
+        <v>9</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="26">
+        <v>244180</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A12" s="27">
+        <v>10</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="42">
+        <v>244180</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A13" s="25">
+        <v>11</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="26">
+        <v>244180</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A14" s="27">
+        <v>12</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="26">
+        <v>244180</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A15" s="25">
+        <v>13</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="26">
+        <v>244180</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A16" s="27">
+        <v>14</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="42">
+        <v>244180</v>
+      </c>
+      <c r="E16" s="41"/>
+      <c r="F16" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A17" s="25">
+        <v>15</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="26">
+        <v>244180</v>
+      </c>
+      <c r="E17" s="41"/>
+      <c r="F17" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A18" s="27">
+        <v>16</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="26">
+        <v>244180</v>
+      </c>
+      <c r="E18" s="41"/>
+      <c r="F18" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A19" s="25">
+        <v>17</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="26">
+        <v>244180</v>
+      </c>
+      <c r="E19" s="41"/>
+      <c r="F19" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A20" s="27">
+        <v>18</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="42">
+        <v>244180</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A21" s="25">
+        <v>19</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="26">
+        <v>244180</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A22" s="27">
+        <v>20</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="26">
+        <v>244180</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="27" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>